--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2200803.346643522</v>
+        <v>-2203439.716296996</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.95836603255732</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>166.1327403680456</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.23930645615799</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>62.42750625282589</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>46.977614585541</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.0901856147613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>196.1462310068603</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>78.47556194058228</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>70.04554881124599</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.15381658332862</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.098718430618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777477</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.628001464564</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>832.6654845241519</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>832.6654845241519</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>832.6654845241519</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>421.6795797345444</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477248</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056666</v>
+        <v>1443.082764731814</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056666</v>
+        <v>1274.146581803907</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056666</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056666</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056666</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G4" t="n">
-        <v>281.0354892056666</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>132.2965910691728</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>1506.140851855881</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056666</v>
+        <v>1506.140851855881</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056666</v>
+        <v>1443.082764731814</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1361.012987209659</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1715.892666966216</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1715.892666966216</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1357.626968359465</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>971.838715761221</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>560.8528109716135</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>145.78036081661</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400695</v>
+        <v>1022.530292372935</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121626</v>
+        <v>853.5941094450283</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>703.4774700326925</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>555.5643764502994</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281683</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.960887244722</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346705</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703092</v>
+        <v>1204.178757203175</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>134.3760737382028</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,34 +6598,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,16 +6725,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7120,10 +7120,10 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,19 +7810,19 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460946</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.7754756309233</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>294.5391914113969</v>
+        <v>203.5983603104234</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.9165484541904</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.55728874774258</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664529</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168525</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100.1408962628952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597304</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215495</v>
+        <v>48691.36674215492</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675046</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675047</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675046</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982126</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982126</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.1871802954</v>
+        <v>39859.18718029537</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
@@ -26427,34 +26427,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768921</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768927</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>17938.00358486238</v>
+      </c>
+      <c r="K4" t="n">
         <v>17938.00358486236</v>
       </c>
-      <c r="K4" t="n">
-        <v>17938.00358486242</v>
-      </c>
       <c r="L4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486241</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1198857.376453905</v>
+        <v>-1199286.935320494</v>
       </c>
       <c r="C6" t="n">
-        <v>-338928.728526798</v>
+        <v>-338928.7285267979</v>
       </c>
       <c r="D6" t="n">
         <v>-135489.9869146922</v>
       </c>
       <c r="E6" t="n">
-        <v>-375946.1409762807</v>
+        <v>-375980.8789017167</v>
       </c>
       <c r="F6" t="n">
-        <v>-50533.67916892553</v>
+        <v>-50568.41709436122</v>
       </c>
       <c r="G6" t="n">
-        <v>-50533.67916892558</v>
+        <v>-50568.41709436126</v>
       </c>
       <c r="H6" t="n">
-        <v>-50533.67916892555</v>
+        <v>-50568.41709436124</v>
       </c>
       <c r="I6" t="n">
-        <v>-50533.67916892559</v>
+        <v>-50568.41709436126</v>
       </c>
       <c r="J6" t="n">
         <v>-246556.8825025708</v>
@@ -26549,19 +26549,19 @@
         <v>-108634.079405011</v>
       </c>
       <c r="L6" t="n">
+        <v>-59523.98669895655</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-144579.0146344685</v>
+      </c>
+      <c r="N6" t="n">
         <v>-59523.98669895653</v>
       </c>
-      <c r="M6" t="n">
-        <v>-144579.0146344684</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-59523.98669895652</v>
-      </c>
       <c r="O6" t="n">
-        <v>-78951.70469258825</v>
+        <v>-78951.70469258823</v>
       </c>
       <c r="P6" t="n">
-        <v>-59523.98669895655</v>
+        <v>-59523.98669895651</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>75.19190926707216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.32139020186321</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>156.1571470992689</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>307.705427035142</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553736</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.37676732973065</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>216.1322024467382</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578702</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696269</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010473</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
